--- a/ig/ch-epreg/StructureDefinition-ch-epreg-coverage.xlsx
+++ b/ig/ch-epreg/StructureDefinition-ch-epreg-coverage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="448">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T15:10:51+00:00</t>
+    <t>2025-12-16T12:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -376,7 +376,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -666,7 +666,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -763,7 +763,7 @@
     <t>Coverage.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -964,7 +964,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1045,7 +1045,7 @@
     <t>The relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/subscriber-relationship</t>
+    <t>http://hl7.org/fhir/ValueSet/subscriber-relationship|4.0.1</t>
   </si>
   <si>
     <t>C03</t>
@@ -1182,7 +1182,10 @@
     <t>The insurer issued label for a specific health card value.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-core/ValueSet/bfs-medstats-21-encountertype</t>
+    <t>The policy classifications, eg. Group, Plan, Class, etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/coverage-class|4.0.1</t>
   </si>
   <si>
     <t>Coverage.class.value</t>
@@ -1298,13 +1301,13 @@
     <t>The types of services to which patient copayments are specified.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/coverage-copay-type</t>
+    <t>http://hl7.org/fhir/ValueSet/coverage-copay-type|4.0.1</t>
   </si>
   <si>
     <t>Coverage.costToBeneficiary.value[x]</t>
   </si>
   <si>
-    <t>Quantity {SimpleQuantity}
+    <t>Quantity {SimpleQuantity|4.0.1}
 Money</t>
   </si>
   <si>
@@ -1356,7 +1359,7 @@
     <t>The types of exceptions from the part or full value of financial obligations such as copays.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/coverage-financial-exception</t>
+    <t>http://hl7.org/fhir/ValueSet/coverage-financial-exception|4.0.1</t>
   </si>
   <si>
     <t>Coverage.costToBeneficiary.exception.period</t>
@@ -1393,7 +1396,7 @@
     <t>Coverage.contract</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Contract)
+    <t xml:space="preserve">Reference(Contract|4.0.1)
 </t>
   </si>
   <si>
@@ -1762,7 +1765,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.0625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.83203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -4507,7 +4510,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>255</v>
       </c>
@@ -6233,7 +6236,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>339</v>
       </c>
@@ -7653,9 +7656,11 @@
       <c r="X48" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y48" s="2"/>
+      <c r="Y48" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="Z48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -7711,10 +7716,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7740,16 +7745,16 @@
         <v>175</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7798,7 +7803,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>91</v>
@@ -7825,21 +7830,21 @@
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7865,14 +7870,14 @@
         <v>175</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7921,7 +7926,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
@@ -7948,21 +7953,21 @@
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7985,17 +7990,17 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8044,7 +8049,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
@@ -8082,10 +8087,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8111,14 +8116,14 @@
         <v>175</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8167,7 +8172,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -8194,7 +8199,7 @@
         <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>81</v>
@@ -8205,14 +8210,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8234,16 +8239,16 @@
         <v>357</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8292,7 +8297,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
@@ -8330,10 +8335,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8451,10 +8456,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8574,10 +8579,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8699,10 +8704,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8728,16 +8733,16 @@
         <v>199</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8765,10 +8770,10 @@
         <v>204</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>81</v>
@@ -8786,7 +8791,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
@@ -8824,10 +8829,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8850,19 +8855,19 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8911,7 +8916,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>91</v>
@@ -8938,21 +8943,21 @@
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AQ58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8978,14 +8983,14 @@
         <v>357</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -9034,7 +9039,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -9072,10 +9077,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9193,10 +9198,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9316,10 +9321,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9441,10 +9446,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9470,14 +9475,14 @@
         <v>199</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9502,13 +9507,13 @@
         <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
@@ -9526,7 +9531,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>91</v>
@@ -9564,10 +9569,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9593,14 +9598,14 @@
         <v>230</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -9649,7 +9654,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
@@ -9687,10 +9692,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9713,19 +9718,19 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -9774,7 +9779,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>82</v>
@@ -9812,10 +9817,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9838,17 +9843,17 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>81</v>
@@ -9897,7 +9902,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
@@ -9927,7 +9932,7 @@
         <v>270</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AQ66" t="s" s="2">
         <v>272</v>
@@ -9935,12 +9940,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ66">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
